--- a/data/Schemes.xlsx
+++ b/data/Schemes.xlsx
@@ -12,7 +12,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="231">
+  <si>
+    <t>[Р27+Р24{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р27:2СШ_Тихорецк];[Р24:Рем_тран_А20-А30-Стармин]]</t>
+  </si>
+  <si>
+    <t>[Р27+Р15{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р27:2СШ_Тихорецк];[Р15:НчГРЭС-Койсуг_2]]</t>
+  </si>
+  <si>
+    <t>[Р26+Р11{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р26:1СШ_Тихорецк];[Р11:Волгодонск-Сальск]]</t>
+  </si>
+  <si>
+    <t>[Р27+Р10{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р27:2СШ_Тихорецк];[Р10:НчГРЭС-Тихорецк]]</t>
+  </si>
   <si>
     <t>[Р26+Р15{Юг}]</t>
   </si>
@@ -20,12 +44,6 @@
     <t>[[Р26:1СШ_Тихорецк];[Р15:НчГРЭС-Койсуг_2]]</t>
   </si>
   <si>
-    <t>[Р27+Р24{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р27:2СШ_Тихорецк];[Р24:Рем_тран_А20-А30-Стармин]]</t>
-  </si>
-  <si>
     <t>[Р26+Р24{Юг}]</t>
   </si>
   <si>
@@ -38,12 +56,6 @@
     <t>[[Р26:1СШ_Тихорецк];[Р10:НчГРЭС-Тихорецк]]</t>
   </si>
   <si>
-    <t>[Р27+Р15{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р27:2СШ_Тихорецк];[Р15:НчГРЭС-Койсуг_2]]</t>
-  </si>
-  <si>
     <t>[Р26+Р14{Юг}]</t>
   </si>
   <si>
@@ -56,12 +68,6 @@
     <t>[[Р27:2СШ_Тихорецк];[Р12:Р-20-А-20]]</t>
   </si>
   <si>
-    <t>[Р26+Р11{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р26:1СШ_Тихорецк];[Р11:Волгодонск-Сальск]]</t>
-  </si>
-  <si>
     <t>[Р27+Р14{Юг}]</t>
   </si>
   <si>
@@ -74,12 +80,6 @@
     <t>[[Р26:1СШ_Тихорецк];[Р12:Р-20-А-20]]</t>
   </si>
   <si>
-    <t>[Р27+Р10{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р27:2СШ_Тихорецк];[Р10:НчГРЭС-Тихорецк]]</t>
-  </si>
-  <si>
     <t>[Р1+Р24{Юг}]</t>
   </si>
   <si>
@@ -98,18 +98,54 @@
     <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р14:НчГРЭС-Койсуг_1]]</t>
   </si>
   <si>
+    <t>[Р1+Р15{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р15:НчГРЭС-Койсуг_2]]</t>
+  </si>
+  <si>
+    <t>[Р3+Р11{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р3:РоАЭС-Буденновск];[Р11:Волгодонск-Сальск]]</t>
+  </si>
+  <si>
+    <t>[Р27+Р4{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р27:2СШ_Тихорецк];[Р4:РоАЭС-Невинномысск]]</t>
+  </si>
+  <si>
+    <t>[Р26+Р5{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р26:1СШ_Тихорецк];[Р5:Ростовская-Тамань]]</t>
+  </si>
+  <si>
+    <t>[Р2+Р12{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р12:Р-20-А-20]]</t>
+  </si>
+  <si>
+    <t>[Р2+Р15{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р15:НчГРЭС-Койсуг_2]]</t>
+  </si>
+  <si>
+    <t>[Р27+Р3{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р27:2СШ_Тихорецк];[Р3:РоАЭС-Буденновск]]</t>
+  </si>
+  <si>
     <t>[Р26+Р4{Юг}]</t>
   </si>
   <si>
     <t>[[Р26:1СШ_Тихорецк];[Р4:РоАЭС-Невинномысск]]</t>
   </si>
   <si>
-    <t>[Р1+Р15{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р15:НчГРЭС-Койсуг_2]]</t>
-  </si>
-  <si>
     <t>[Р1+Р12{Юг}]</t>
   </si>
   <si>
@@ -122,24 +158,12 @@
     <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р10:НчГРЭС-Тихорецк]]</t>
   </si>
   <si>
-    <t>[Р3+Р11{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р3:РоАЭС-Буденновск];[Р11:Волгодонск-Сальск]]</t>
-  </si>
-  <si>
     <t>[Р2+Р24{Юг}]</t>
   </si>
   <si>
     <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р24:Рем_тран_А20-А30-Стармин]]</t>
   </si>
   <si>
-    <t>[Р27+Р4{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р27:2СШ_Тихорецк];[Р4:РоАЭС-Невинномысск]]</t>
-  </si>
-  <si>
     <t>[Р1+Р11{Юг}]</t>
   </si>
   <si>
@@ -158,22 +182,10 @@
     <t>[[Р3:РоАЭС-Буденновск];[Р10:НчГРЭС-Тихорецк]]</t>
   </si>
   <si>
-    <t>[Р2+Р12{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р12:Р-20-А-20]]</t>
-  </si>
-  <si>
-    <t>[Р2+Р15{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р15:НчГРЭС-Койсуг_2]]</t>
-  </si>
-  <si>
-    <t>[Р27+Р3{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р27:2СШ_Тихорецк];[Р3:РоАЭС-Буденновск]]</t>
+    <t>[Р27+Р5{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р27:2СШ_Тихорецк];[Р5:Ростовская-Тамань]]</t>
   </si>
   <si>
     <t>[Р26+Р3{Юг}]</t>
@@ -188,6 +200,42 @@
     <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р11:Волгодонск-Сальск]]</t>
   </si>
   <si>
+    <t>[Р2+Р3{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р3:РоАЭС-Буденновск]]</t>
+  </si>
+  <si>
+    <t>[Р2+Р4{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р4:РоАЭС-Невинномысск]]</t>
+  </si>
+  <si>
+    <t>[Р1+Р2{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р2:РоАЭС-Тихорецк_2ц]]</t>
+  </si>
+  <si>
+    <t>[Р1+Р5{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р5:Ростовская-Тамань]]</t>
+  </si>
+  <si>
+    <t>[Р4+Р7{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р4:РоАЭС-Невинномысск];[Р7:АТ-502_Буденновск]]</t>
+  </si>
+  <si>
+    <t>[Р3+Р8{Юг}]</t>
+  </si>
+  <si>
+    <t>[[Р3:РоАЭС-Буденновск];[Р8:АТГ-1_ПС_Невинномысск]]</t>
+  </si>
+  <si>
     <t>[Р5+Р3{Юг}]</t>
   </si>
   <si>
@@ -200,12 +248,6 @@
     <t>[[Р4:РоАЭС-Невинномысск];[Р6:АТ-501_Буденновск]]</t>
   </si>
   <si>
-    <t>[Р2+Р3{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р3:РоАЭС-Буденновск]]</t>
-  </si>
-  <si>
     <t>[Р3+Р9{Юг}]</t>
   </si>
   <si>
@@ -218,12 +260,6 @@
     <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р3:РоАЭС-Буденновск]]</t>
   </si>
   <si>
-    <t>[Р2+Р4{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р4:РоАЭС-Невинномысск]]</t>
-  </si>
-  <si>
     <t>[Р1+Р4{Юг}]</t>
   </si>
   <si>
@@ -236,36 +272,12 @@
     <t>[[Р2:РоАЭС-Тихорецк_2ц];[Р5:Ростовская-Тамань]]</t>
   </si>
   <si>
-    <t>[Р1+Р2{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р2:РоАЭС-Тихорецк_2ц]]</t>
-  </si>
-  <si>
-    <t>[Р1+Р5{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р1:РоАЭС-Тихорецк_1ц];[Р5:Ростовская-Тамань]]</t>
-  </si>
-  <si>
-    <t>[Р4+Р7{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р4:РоАЭС-Невинномысск];[Р7:АТ-502_Буденновск]]</t>
-  </si>
-  <si>
     <t>[Р5+Р4{Юг}]</t>
   </si>
   <si>
     <t>[[Р5:Ростовская-Тамань];[Р4:РоАЭС-Невинномысск]]</t>
   </si>
   <si>
-    <t>[Р3+Р8{Юг}]</t>
-  </si>
-  <si>
-    <t>[[Р3:РоАЭС-Буденновск];[Р8:АТГ-1_ПС_Невинномысск]]</t>
-  </si>
-  <si>
     <t>[Р27{Юг}]</t>
   </si>
   <si>
@@ -284,24 +296,24 @@
     <t>[Р4:РоАЭС-Невинномысск]</t>
   </si>
   <si>
+    <t>[Р3{Юг}]</t>
+  </si>
+  <si>
+    <t>[Р3:РоАЭС-Буденновск]</t>
+  </si>
+  <si>
+    <t>[Р2{Юг}]</t>
+  </si>
+  <si>
+    <t>[Р2:РоАЭС-Тихорецк_2ц]</t>
+  </si>
+  <si>
     <t>[Р1{Юг}]</t>
   </si>
   <si>
     <t>[Р1:РоАЭС-Тихорецк_1ц]</t>
   </si>
   <si>
-    <t>[Р3{Юг}]</t>
-  </si>
-  <si>
-    <t>[Р3:РоАЭС-Буденновск]</t>
-  </si>
-  <si>
-    <t>[Р2{Юг}]</t>
-  </si>
-  <si>
-    <t>[Р2:РоАЭС-Тихорецк_2ц]</t>
-  </si>
-  <si>
     <t>[Нормальная_схема{Ман}]</t>
   </si>
   <si>
@@ -617,9 +629,6 @@
     <t>[Р27+Р5{Куб}]</t>
   </si>
   <si>
-    <t>[[Р27:2СШ_Тихорецк];[Р5:Ростовская-Тамань]]</t>
-  </si>
-  <si>
     <t>[Р1+Р11{Куб}]</t>
   </si>
   <si>
@@ -633,9 +642,6 @@
   </si>
   <si>
     <t>[Р26+Р5{Куб}]</t>
-  </si>
-  <si>
-    <t>[[Р26:1СШ_Тихорецк];[Р5:Ростовская-Тамань]]</t>
   </si>
   <si>
     <t>[Р2+Р13{Куб}]</t>
@@ -743,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1186,39 +1192,39 @@
         <v>108</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
@@ -1226,23 +1232,23 @@
         <v>116</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
@@ -1250,47 +1256,47 @@
         <v>121</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>11</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -1314,23 +1320,23 @@
         <v>134</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1338,31 +1344,31 @@
         <v>139</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
@@ -1370,23 +1376,23 @@
         <v>145</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -1410,63 +1416,63 @@
         <v>154</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>3</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -1514,103 +1520,103 @@
         <v>176</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>1</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>17</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>179</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>49</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>57</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>191</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109">
@@ -1618,71 +1624,71 @@
         <v>194</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>27</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>198</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>205</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118">
@@ -1690,31 +1696,31 @@
         <v>206</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>207</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s" s="0">
         <v>208</v>
-      </c>
-      <c r="B119" t="s" s="0">
-        <v>209</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B121" t="s" s="0">
         <v>211</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>73</v>
       </c>
     </row>
     <row r="122">
@@ -1722,7 +1728,7 @@
         <v>212</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123">
@@ -1730,71 +1736,71 @@
         <v>213</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>214</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B125" t="s" s="0">
         <v>216</v>
-      </c>
-      <c r="B125" t="s" s="0">
-        <v>217</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>219</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s" s="0">
         <v>223</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>224</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B131" t="s" s="0">
         <v>226</v>
-      </c>
-      <c r="B131" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="132">
@@ -1802,7 +1808,23 @@
         <v>227</v>
       </c>
       <c r="B132" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
         <v>228</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/Schemes.xlsx
+++ b/data/Schemes.xlsx
@@ -548,13 +548,13 @@
     <t>[[Р10:НчГРЭС-Тихорецк];[Р14:НчГРЭС-Койсуг_1]]</t>
   </si>
   <si>
+    <t>[Р26+Р15{Куб}]</t>
+  </si>
+  <si>
     <t>[Р26+Р18{Куб}]</t>
   </si>
   <si>
     <t>[[Р26:1СШ_Тихорецк];[Р18:Койсуг-А-20]]</t>
-  </si>
-  <si>
-    <t>[Р26+Р15{Куб}]</t>
   </si>
   <si>
     <t>[Р27+Р14{Куб}]</t>
@@ -1528,15 +1528,15 @@
         <v>178</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>179</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="99">
